--- a/WebRoot/WEB-INF/tpls/T031Hourly.xlsx
+++ b/WebRoot/WEB-INF/tpls/T031Hourly.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +84,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,10 +130,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -409,7 +416,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
